--- a/data_processing_file.xlsx
+++ b/data_processing_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\idair-compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E472C1B8-0414-4CDF-B163-64FFBBA7B4D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEE0537-CD01-474F-B971-08D1776704A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="16157" xr2:uid="{300304A2-D3F8-482E-B889-D9ABEF1770F2}"/>
   </bookViews>
@@ -38,7 +38,7 @@
     <author>Steve Cygu</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{1DDC9F3B-23C6-4AD3-8F32-B2706B1828F5}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{1DDC9F3B-23C6-4AD3-8F32-B2706B1828F5}">
       <text>
         <r>
           <rPr>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>data_path</t>
   </si>
@@ -75,9 +75,6 @@
     <t>problem_type</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/i-dair-tech/ri-codex-lab-session/main/classification/QSAR_biodegradation.csv</t>
-  </si>
-  <si>
     <t>data_source</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>miss_value</t>
   </si>
   <si>
-    <t>EXPERIMENTAL_CLASS</t>
-  </si>
-  <si>
     <t>handle_missing</t>
   </si>
   <si>
@@ -168,9 +162,6 @@
     <t>RMSE</t>
   </si>
   <si>
-    <t>classification</t>
-  </si>
-  <si>
     <t>Accuracy</t>
   </si>
   <si>
@@ -180,13 +171,22 @@
     <t>regression_report_metric</t>
   </si>
   <si>
-    <t>RB</t>
-  </si>
-  <si>
-    <t>NRB</t>
-  </si>
-  <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>project_name</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/i-dair-tech/ri-codex-lab-session/main/regression/FDT_all_excipients.csv</t>
+  </si>
+  <si>
+    <t>DISINTEGRATION_TIME</t>
+  </si>
+  <si>
+    <t>FDT_all_excipients</t>
+  </si>
+  <si>
+    <t>regression</t>
   </si>
 </sst>
 </file>
@@ -580,160 +580,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431AD7A4-E948-4955-B551-5374CB7818AA}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.61328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.84375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.765625" style="4"/>
-    <col min="4" max="4" width="14.84375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.07421875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.69140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.15234375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="8.765625" style="4"/>
-    <col min="12" max="12" width="17.69140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.765625" style="4"/>
-    <col min="14" max="14" width="24.69140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.765625" style="4"/>
+    <col min="1" max="1" width="12.61328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.61328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.84375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.765625" style="4"/>
+    <col min="5" max="5" width="14.84375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.07421875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.69140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.15234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8.765625" style="4"/>
+    <col min="13" max="13" width="17.69140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.765625" style="4"/>
+    <col min="15" max="15" width="24.69140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.53515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.765625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="M1" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="4">
+        <v>37</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="4">
         <v>7902</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <v>0.8</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="4">
         <v>10</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="4">
+      <c r="J2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="4">
         <v>5</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="L2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>39</v>
+      <c r="P2" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="missing" prompt="Select one option" sqref="G2" xr:uid="{8A080A45-4E18-43D2-9FE7-31DE1F3EC809}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="missing" prompt="Select one option" sqref="H2" xr:uid="{8A080A45-4E18-43D2-9FE7-31DE1F3EC809}">
       <formula1>"omit, missing_mean, missing_median, mode_median, mode_mean, bag, knn, knn_linear"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="up_sample" prompt="Chose an option" sqref="F2" xr:uid="{3B0AD55F-4D07-4837-B932-4804CF86C19F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="up_sample" prompt="Chose an option" sqref="G2" xr:uid="{3B0AD55F-4D07-4837-B932-4804CF86C19F}">
       <formula1>"0, 1"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="correltion" prompt="Specify value between 0 and 1" sqref="E2" xr:uid="{8239E5F4-5B80-4A2F-ACB7-D5D6E839EEC4}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="correltion" prompt="Specify value between 0 and 1" sqref="F2" xr:uid="{8239E5F4-5B80-4A2F-ACB7-D5D6E839EEC4}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Train-test-ratio" prompt="Value between 0.1 and 0.99" sqref="D2" xr:uid="{CCBDF92D-B388-4DFD-B653-347CE7CE9C45}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Train-test-ratio" prompt="Value between 0.1 and 0.99" sqref="E2" xr:uid="{CCBDF92D-B388-4DFD-B653-347CE7CE9C45}">
       <formula1>0.1</formula1>
       <formula2>0.99</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 E12" xr:uid="{73B1B86F-62B9-462D-BF12-EBD11510EE51}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 F12" xr:uid="{73B1B86F-62B9-462D-BF12-EBD11510EE51}">
       <formula1>"classification, regression"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="cv" prompt="Choose one option from drop-down" sqref="I2" xr:uid="{D2ADEB89-4A13-4047-B2EF-595754C1FD68}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="cv" prompt="Choose one option from drop-down" sqref="J2" xr:uid="{D2ADEB89-4A13-4047-B2EF-595754C1FD68}">
       <formula1>"cv, repeatedcv, adaptive_cv, LOOCV, LGOCV, adaptive_LGOCV, boot, boot632, optimism_boot, boot_all, adaptive_boot"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Number of folds for k-fold" sqref="H2" xr:uid="{534AD03C-6764-438E-B22C-20495F97BBAC}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Number of folds for k-fold" sqref="I2" xr:uid="{534AD03C-6764-438E-B22C-20495F97BBAC}">
       <formula1>3</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="repeats" prompt="Repeats for CV" sqref="J2" xr:uid="{39BCC388-6880-4A50-9A41-86CA550E5FFB}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="repeats" prompt="Repeats for CV" sqref="K2" xr:uid="{39BCC388-6880-4A50-9A41-86CA550E5FFB}">
       <formula1>2</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Grid" prompt="How to search for the hyper parameters" sqref="K2" xr:uid="{7BE2D573-9887-404F-8B46-6A614BFB619D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Grid" prompt="How to search for the hyper parameters" sqref="L2" xr:uid="{7BE2D573-9887-404F-8B46-6A614BFB619D}">
       <formula1>"grid, random"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="class_metric" prompt="Select performance metric" sqref="L2" xr:uid="{89CD14AE-9E39-4622-A0BF-F89838FC4AD9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="class_metric" prompt="Select performance metric" sqref="M2" xr:uid="{89CD14AE-9E39-4622-A0BF-F89838FC4AD9}">
       <formula1>"ROC, Accuracy, Kappa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="reg_metric" prompt="Select performance metric" sqref="M2" xr:uid="{BD875FED-462E-4C0A-9E2C-4EC9706D6FD9}">
-      <formula1>"RMSE, Rsquared"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Report_metric" prompt="Metric to report on the test data" sqref="N2" xr:uid="{B1D150A7-FEDA-47A9-AB66-84D9E1EF6906}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="reg_metric" prompt="Select performance metric" sqref="N2 P2" xr:uid="{BD875FED-462E-4C0A-9E2C-4EC9706D6FD9}">
+      <formula1>"RMSE, Rsquared, MAE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Report_metric" prompt="Metric to report on the test data" sqref="O2" xr:uid="{B1D150A7-FEDA-47A9-AB66-84D9E1EF6906}">
       <formula1>"Accuracy, AUCROC, AUCRecall, Sens, Spec, Precision, Recall, F"</formula1>
     </dataValidation>
   </dataValidations>
@@ -755,12 +766,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -778,12 +789,12 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="96" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="136.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
@@ -793,7 +804,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -823,22 +834,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -864,10 +875,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -889,10 +900,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EB889C-5522-482F-B356-C4AD72B14306}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -904,35 +915,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -952,7 +941,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -976,7 +965,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -990,14 +979,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data_processing_file.xlsx
+++ b/data_processing_file.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\idair-compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEE0537-CD01-474F-B971-08D1776704A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58C8227-11DE-4179-A1FC-AC61A8233C35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="16157" xr2:uid="{300304A2-D3F8-482E-B889-D9ABEF1770F2}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>data_path</t>
   </si>
@@ -177,16 +177,22 @@
     <t>project_name</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/i-dair-tech/ri-codex-lab-session/main/regression/FDT_all_excipients.csv</t>
-  </si>
-  <si>
-    <t>DISINTEGRATION_TIME</t>
-  </si>
-  <si>
-    <t>FDT_all_excipients</t>
-  </si>
-  <si>
-    <t>regression</t>
+    <t>class</t>
+  </si>
+  <si>
+    <t>heart_data</t>
+  </si>
+  <si>
+    <t>classification</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/i-dair-tech/ri-codex-data/main/simulate_data/heart_data.csv</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -583,7 +589,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -657,19 +663,19 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="D2" s="4">
         <v>7902</v>
       </c>
       <c r="E2" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
@@ -789,7 +795,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -804,7 +810,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -900,10 +906,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EB889C-5522-482F-B356-C4AD72B14306}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -922,6 +928,28 @@
       </c>
       <c r="C1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/data_processing_file.xlsx
+++ b/data_processing_file.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\idair-compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58C8227-11DE-4179-A1FC-AC61A8233C35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23689E7D-0EEF-460B-8674-A0F16D75FA03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="16157" xr2:uid="{300304A2-D3F8-482E-B889-D9ABEF1770F2}"/>
   </bookViews>
   <sheets>
-    <sheet name="model_params" sheetId="12" r:id="rId1"/>
-    <sheet name="data_source" sheetId="3" r:id="rId2"/>
-    <sheet name="data_path" sheetId="1" r:id="rId3"/>
-    <sheet name="renamed_vars" sheetId="4" r:id="rId4"/>
-    <sheet name="droped_vars" sheetId="5" r:id="rId5"/>
-    <sheet name="vars_to_relabel" sheetId="6" r:id="rId6"/>
-    <sheet name="vars_to_numeric" sheetId="7" r:id="rId7"/>
-    <sheet name="missing_vals" sheetId="8" r:id="rId8"/>
-    <sheet name="ses_vars" sheetId="13" r:id="rId9"/>
+    <sheet name="project_description" sheetId="14" r:id="rId1"/>
+    <sheet name="model_params" sheetId="12" r:id="rId2"/>
+    <sheet name="data_source" sheetId="3" r:id="rId3"/>
+    <sheet name="data_path" sheetId="1" r:id="rId4"/>
+    <sheet name="renamed_vars" sheetId="4" r:id="rId5"/>
+    <sheet name="droped_vars" sheetId="5" r:id="rId6"/>
+    <sheet name="vars_to_relabel" sheetId="6" r:id="rId7"/>
+    <sheet name="vars_to_numeric" sheetId="7" r:id="rId8"/>
+    <sheet name="missing_vals" sheetId="8" r:id="rId9"/>
+    <sheet name="ses_vars" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>data_path</t>
   </si>
@@ -193,6 +194,30 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>study_area</t>
+  </si>
+  <si>
+    <t>study_objective</t>
+  </si>
+  <si>
+    <t>Nairobi, Kenya</t>
+  </si>
+  <si>
+    <t>study_period</t>
+  </si>
+  <si>
+    <t>1990 to 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The objective of the study was to predict whether one develops heart condition from a number of clinical factors </t>
+  </si>
+  <si>
+    <t>subject_area</t>
+  </si>
+  <si>
+    <t>Public health</t>
   </si>
 </sst>
 </file>
@@ -264,12 +289,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -585,11 +617,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98597F23-23F8-45E6-BB1F-64A7FF675FC1}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.61328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E5959A-03EB-427E-A5F7-00B23B808533}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431AD7A4-E948-4955-B551-5374CB7818AA}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -760,7 +860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6CC94CC-AF59-4722-87EE-5B0EB76D5446}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -790,7 +890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969433BC-8EB9-4D35-B1C0-E20ADFB7B051}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -821,7 +921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B27D0DA-3A88-4C27-9F42-D847CA93674A}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -866,7 +966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F9730F-149C-4B98-A72E-435038AC6BBA}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -904,7 +1004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EB889C-5522-482F-B356-C4AD72B14306}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -957,7 +1057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9F8B55-2E03-4671-80E9-C0AB782C9167}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -977,7 +1077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313CCC9E-DCC9-4ADA-AB94-211ACF1F8C2F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1000,24 +1100,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E5959A-03EB-427E-A5F7-00B23B808533}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data_processing_file.xlsx
+++ b/data_processing_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\idair-compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23689E7D-0EEF-460B-8674-A0F16D75FA03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C242DF-57B7-47A6-A01B-2C3D1481C3B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="16157" xr2:uid="{300304A2-D3F8-482E-B889-D9ABEF1770F2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="16157" activeTab="1" xr2:uid="{300304A2-D3F8-482E-B889-D9ABEF1770F2}"/>
   </bookViews>
   <sheets>
     <sheet name="project_description" sheetId="14" r:id="rId1"/>
@@ -620,7 +620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98597F23-23F8-45E6-BB1F-64A7FF675FC1}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431AD7A4-E948-4955-B551-5374CB7818AA}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -775,7 +775,7 @@
         <v>7902</v>
       </c>
       <c r="E2" s="4">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>

--- a/data_processing_file.xlsx
+++ b/data_processing_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\idair-compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C242DF-57B7-47A6-A01B-2C3D1481C3B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAEEF23-4344-4264-8F2C-CEB96AF08883}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="16157" activeTab="1" xr2:uid="{300304A2-D3F8-482E-B889-D9ABEF1770F2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="16157" activeTab="6" xr2:uid="{300304A2-D3F8-482E-B889-D9ABEF1770F2}"/>
   </bookViews>
   <sheets>
     <sheet name="project_description" sheetId="14" r:id="rId1"/>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431AD7A4-E948-4955-B551-5374CB7818AA}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -775,7 +775,7 @@
         <v>7902</v>
       </c>
       <c r="E2" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
@@ -1008,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EB889C-5522-482F-B356-C4AD72B14306}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1035,10 +1035,10 @@
         <v>36</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -1046,10 +1046,10 @@
         <v>36</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/data_processing_file.xlsx
+++ b/data_processing_file.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\idair-compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAEEF23-4344-4264-8F2C-CEB96AF08883}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98548E91-1F72-492C-8D67-C0E93D6AF251}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="16157" activeTab="6" xr2:uid="{300304A2-D3F8-482E-B889-D9ABEF1770F2}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>data_path</t>
   </si>
@@ -178,46 +178,43 @@
     <t>project_name</t>
   </si>
   <si>
+    <t>classification</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>study_area</t>
+  </si>
+  <si>
+    <t>study_objective</t>
+  </si>
+  <si>
+    <t>Nairobi, Kenya</t>
+  </si>
+  <si>
+    <t>study_period</t>
+  </si>
+  <si>
+    <t>subject_area</t>
+  </si>
+  <si>
+    <t>Public health</t>
+  </si>
+  <si>
+    <t>The objective of the study was to predict whether a patient develops a heart condition or not from a number of socio-demographic factors</t>
+  </si>
+  <si>
+    <t>heart_data</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/i-dair-tech/ri-codex-data/main/simulate_data/heart_data.csv</t>
+  </si>
+  <si>
     <t>class</t>
-  </si>
-  <si>
-    <t>heart_data</t>
-  </si>
-  <si>
-    <t>classification</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/i-dair-tech/ri-codex-data/main/simulate_data/heart_data.csv</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>study_area</t>
-  </si>
-  <si>
-    <t>study_objective</t>
-  </si>
-  <si>
-    <t>Nairobi, Kenya</t>
-  </si>
-  <si>
-    <t>study_period</t>
-  </si>
-  <si>
-    <t>1990 to 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The objective of the study was to predict whether one develops heart condition from a number of clinical factors </t>
-  </si>
-  <si>
-    <t>subject_area</t>
-  </si>
-  <si>
-    <t>Public health</t>
   </si>
 </sst>
 </file>
@@ -620,43 +617,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98597F23-23F8-45E6-BB1F-64A7FF675FC1}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12.765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.61328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2015</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -668,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E5959A-03EB-427E-A5F7-00B23B808533}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -688,13 +686,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431AD7A4-E948-4955-B551-5374CB7818AA}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.61328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.3046875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.61328125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.84375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.765625" style="4"/>
@@ -763,13 +761,13 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="D2" s="4">
         <v>7902</v>
@@ -895,7 +893,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -910,7 +908,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -926,7 +924,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -970,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F9730F-149C-4B98-A72E-435038AC6BBA}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1008,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EB889C-5522-482F-B356-C4AD72B14306}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1032,24 +1030,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1061,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9F8B55-2E03-4671-80E9-C0AB782C9167}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/data_processing_file.xlsx
+++ b/data_processing_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\idair-compare\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\diagnostic-gap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98548E91-1F72-492C-8D67-C0E93D6AF251}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8AEFD7-3752-4EB4-9777-F801848D9D1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="16157" activeTab="6" xr2:uid="{300304A2-D3F8-482E-B889-D9ABEF1770F2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="16157" activeTab="2" xr2:uid="{300304A2-D3F8-482E-B889-D9ABEF1770F2}"/>
   </bookViews>
   <sheets>
     <sheet name="project_description" sheetId="14" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>data_path</t>
   </si>
@@ -163,18 +163,12 @@
     <t>RMSE</t>
   </si>
   <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
     <t>classification_report_metric</t>
   </si>
   <si>
     <t>regression_report_metric</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>project_name</t>
   </si>
   <si>
@@ -205,16 +199,25 @@
     <t>Public health</t>
   </si>
   <si>
-    <t>The objective of the study was to predict whether a patient develops a heart condition or not from a number of socio-demographic factors</t>
-  </si>
-  <si>
-    <t>heart_data</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/i-dair-tech/ri-codex-data/main/simulate_data/heart_data.csv</t>
-  </si>
-  <si>
-    <t>class</t>
+    <t>2020 to 2023</t>
+  </si>
+  <si>
+    <t>The objective of the study was to determine which factors contribute to diagnostic gaps in epilepsy.</t>
+  </si>
+  <si>
+    <t>diaggap</t>
+  </si>
+  <si>
+    <t>epilepsy_diagnostic_gap</t>
+  </si>
+  <si>
+    <t>AUCROC</t>
+  </si>
+  <si>
+    <t>Epilepsy diagnostic gap data2.csv</t>
+  </si>
+  <si>
+    <t>ROC</t>
   </si>
 </sst>
 </file>
@@ -618,7 +621,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E14" sqref="E14:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -631,30 +634,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="6">
-        <v>2015</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -687,7 +690,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -711,7 +714,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>21</v>
@@ -753,10 +756,10 @@
         <v>29</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
@@ -764,19 +767,19 @@
         <v>46</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" s="4">
         <v>7902</v>
       </c>
       <c r="E2" s="4">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F2" s="4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G2" s="4">
         <v>0</v>
@@ -797,13 +800,13 @@
         <v>27</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>30</v>
@@ -862,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6CC94CC-AF59-4722-87EE-5B0EB76D5446}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -893,7 +896,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -908,12 +911,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{0C347C46-C9AA-485C-9AE5-CAEF6EEFD6F4}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://raw.githubusercontent.com/i-dair-tech/ri-codex-data/main/simulate_data/heart_data.csv" xr:uid="{0C347C46-C9AA-485C-9AE5-CAEF6EEFD6F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1006,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EB889C-5522-482F-B356-C4AD72B14306}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1030,24 +1033,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data_processing_file.xlsx
+++ b/data_processing_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\diagnostic-gap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8AEFD7-3752-4EB4-9777-F801848D9D1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBA2EBE-0C5F-43BA-9FE2-5C67F89DBB45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="16157" activeTab="2" xr2:uid="{300304A2-D3F8-482E-B889-D9ABEF1770F2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="16157" activeTab="6" xr2:uid="{300304A2-D3F8-482E-B889-D9ABEF1770F2}"/>
   </bookViews>
   <sheets>
     <sheet name="project_description" sheetId="14" r:id="rId1"/>
@@ -205,19 +205,19 @@
     <t>The objective of the study was to determine which factors contribute to diagnostic gaps in epilepsy.</t>
   </si>
   <si>
-    <t>diaggap</t>
-  </si>
-  <si>
     <t>epilepsy_diagnostic_gap</t>
   </si>
   <si>
     <t>AUCROC</t>
   </si>
   <si>
-    <t>Epilepsy diagnostic gap data2.csv</t>
-  </si>
-  <si>
     <t>ROC</t>
+  </si>
+  <si>
+    <t>Epilepsy diagnostic gap data_labelled.csv</t>
+  </si>
+  <si>
+    <t>diagnostic_gap</t>
   </si>
 </sst>
 </file>
@@ -690,7 +690,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -764,10 +764,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>34</v>
@@ -800,13 +800,13 @@
         <v>27</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>30</v>
@@ -865,7 +865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6CC94CC-AF59-4722-87EE-5B0EB76D5446}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
@@ -896,7 +896,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1009,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EB889C-5522-482F-B356-C4AD72B14306}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <v>0</v>
